--- a/Abstand4.5cm.xlsx
+++ b/Abstand4.5cm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\Physik\Grundpraktikum 2\V701----Reichweite-von-Alphastrahlung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746F87D9-6F98-41E0-972F-ECD74667A797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560CA851-C051-4188-8E1A-B8D1F733F3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="2400" windowWidth="21600" windowHeight="11295" xr2:uid="{7C37FB33-2B18-4F5A-A6E3-070757AEF242}"/>
+    <workbookView xWindow="2490" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{7C37FB33-2B18-4F5A-A6E3-070757AEF242}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Druck in mbar</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Maximum</t>
+  </si>
+  <si>
+    <t>Effektive Länge</t>
   </si>
 </sst>
 </file>
@@ -399,18 +402,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D8F3E2-5DF0-4208-9427-AFE10920CA28}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +427,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -437,8 +444,12 @@
       <c r="D2">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>0.045*A2/1.013</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+50</f>
         <v>50</v>
@@ -452,10 +463,14 @@
       <c r="D3">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E18" si="0">0.045*A3/1.013</f>
+        <v>2.2211253701875617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A22" si="0">A3+50</f>
+        <f t="shared" ref="A4:A22" si="1">A3+50</f>
         <v>100</v>
       </c>
       <c r="B4">
@@ -467,10 +482,14 @@
       <c r="D4">
         <v>121</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4.4422507403751235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="B5">
@@ -482,10 +501,14 @@
       <c r="D5">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>6.6633761105626856</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="B6">
@@ -497,10 +520,14 @@
       <c r="D6">
         <v>146</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>8.8845014807502469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="B7">
@@ -512,10 +539,14 @@
       <c r="D7">
         <v>147</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>11.10562685093781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="B8">
@@ -527,10 +558,14 @@
       <c r="D8">
         <v>159</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>13.326752221125371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="B9">
@@ -542,77 +577,180 @@
       <c r="D9">
         <v>155</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>15.547877591312933</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>26401</v>
+      </c>
+      <c r="C10">
+        <v>463</v>
+      </c>
+      <c r="D10">
+        <v>162</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>17.769002961500494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>25624</v>
+      </c>
+      <c r="C11">
+        <v>412</v>
+      </c>
+      <c r="D11">
+        <v>162</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>19.990128331688059</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>22454</v>
+      </c>
+      <c r="C12">
+        <v>367</v>
+      </c>
+      <c r="D12">
+        <v>168</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>22.21125370187562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>550</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>16202</v>
+      </c>
+      <c r="C13">
+        <v>295</v>
+      </c>
+      <c r="D13">
+        <v>162</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>24.432379072063181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>3458</v>
+      </c>
+      <c r="C14">
+        <v>271</v>
+      </c>
+      <c r="D14">
+        <v>76</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>26.653504442250743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>650</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>107</v>
+      </c>
+      <c r="C15">
+        <v>286</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>28.874629812438304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>462</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>31.095755182625865</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>750</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>315</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>33.31688055281343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>850</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>950</v>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>35.538005923000988</v>
       </c>
     </row>
   </sheetData>

--- a/Abstand4.5cm.xlsx
+++ b/Abstand4.5cm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\Physik\Grundpraktikum 2\V701----Reichweite-von-Alphastrahlung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudoitmc-my.sharepoint.com/personal/celina_kortmann_study_tu-dortmund_de/Documents/Dokumente/Studium/Anfängerpraktikum/V701----Reichweite-von-Alphastrahlung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560CA851-C051-4188-8E1A-B8D1F733F3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{560CA851-C051-4188-8E1A-B8D1F733F3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1D6368D-59AC-4F6A-BEFC-BA6525E84950}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{7C37FB33-2B18-4F5A-A6E3-070757AEF242}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{7C37FB33-2B18-4F5A-A6E3-070757AEF242}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Druck in mbar</t>
   </si>
@@ -52,11 +52,17 @@
   <si>
     <t>Effektive Länge</t>
   </si>
+  <si>
+    <t>Energie in MeV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -402,19 +409,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D8F3E2-5DF0-4208-9427-AFE10920CA28}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D3" sqref="D3:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,13 +433,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -442,14 +453,17 @@
         <v>830</v>
       </c>
       <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
         <v>109</v>
       </c>
-      <c r="E2">
-        <f>0.045*A2/1.013</f>
+      <c r="F2" s="1">
+        <f>0.045*A2*0.001/1.013</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>A2+50</f>
         <v>50</v>
@@ -461,16 +475,20 @@
         <v>768</v>
       </c>
       <c r="D3">
+        <f>0.00481927711*C3</f>
+        <v>3.7012048204800001</v>
+      </c>
+      <c r="E3">
         <v>125</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E18" si="0">0.045*A3/1.013</f>
-        <v>2.2211253701875617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F18" si="0">0.045*A3*0.001/1.013</f>
+        <v>2.221125370187562E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" ref="A4:A22" si="1">A3+50</f>
+        <f t="shared" ref="A4:A18" si="1">A3+50</f>
         <v>100</v>
       </c>
       <c r="B4">
@@ -480,14 +498,18 @@
         <v>745</v>
       </c>
       <c r="D4">
+        <f t="shared" ref="D4:D18" si="2">0.00481927711*C4</f>
+        <v>3.5903614469499998</v>
+      </c>
+      <c r="E4">
         <v>121</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>4.4422507403751235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4422507403751241E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>150</v>
@@ -499,14 +521,18 @@
         <v>675</v>
       </c>
       <c r="D5">
+        <f t="shared" si="2"/>
+        <v>3.2530120492500001</v>
+      </c>
+      <c r="E5">
         <v>137</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>6.6633761105626856</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>6.6633761105626852E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>200</v>
@@ -518,14 +544,18 @@
         <v>668</v>
       </c>
       <c r="D6">
+        <f t="shared" si="2"/>
+        <v>3.2192771094799997</v>
+      </c>
+      <c r="E6">
         <v>146</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>8.8845014807502469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8845014807502481E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>250</v>
@@ -537,14 +567,18 @@
         <v>631</v>
       </c>
       <c r="D7">
+        <f t="shared" si="2"/>
+        <v>3.0409638564099999</v>
+      </c>
+      <c r="E7">
         <v>147</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>11.10562685093781</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1105626850937808E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>300</v>
@@ -556,14 +590,18 @@
         <v>559</v>
       </c>
       <c r="D8">
+        <f t="shared" si="2"/>
+        <v>2.6939759044899998</v>
+      </c>
+      <c r="E8">
         <v>159</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>13.326752221125371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.332675222112537E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>350</v>
@@ -575,14 +613,18 @@
         <v>536</v>
       </c>
       <c r="D9">
+        <f t="shared" si="2"/>
+        <v>2.58313253096</v>
+      </c>
+      <c r="E9">
         <v>155</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>15.547877591312933</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5547877591312934E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>400</v>
@@ -594,14 +636,18 @@
         <v>463</v>
       </c>
       <c r="D10">
+        <f t="shared" si="2"/>
+        <v>2.2313253019300001</v>
+      </c>
+      <c r="E10">
         <v>162</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>17.769002961500494</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7769002961500496E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>450</v>
@@ -613,14 +659,18 @@
         <v>412</v>
       </c>
       <c r="D11">
+        <f t="shared" si="2"/>
+        <v>1.9855421693199999</v>
+      </c>
+      <c r="E11">
         <v>162</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>19.990128331688059</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9990128331688058E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>500</v>
@@ -632,14 +682,18 @@
         <v>367</v>
       </c>
       <c r="D12">
+        <f t="shared" si="2"/>
+        <v>1.76867469937</v>
+      </c>
+      <c r="E12">
         <v>168</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>22.21125370187562</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2211253701875617E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>550</v>
@@ -651,14 +705,18 @@
         <v>295</v>
       </c>
       <c r="D13">
+        <f t="shared" si="2"/>
+        <v>1.4216867474499999</v>
+      </c>
+      <c r="E13">
         <v>162</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>24.432379072063181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4432379072063182E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>600</v>
@@ -670,14 +728,18 @@
         <v>271</v>
       </c>
       <c r="D14">
+        <f t="shared" si="2"/>
+        <v>1.3060240968099999</v>
+      </c>
+      <c r="E14">
         <v>76</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>26.653504442250743</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6653504442250741E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>650</v>
@@ -689,14 +751,18 @@
         <v>286</v>
       </c>
       <c r="D15">
+        <f t="shared" si="2"/>
+        <v>1.37831325346</v>
+      </c>
+      <c r="E15">
         <v>6</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>28.874629812438304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8874629812438306E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>700</v>
@@ -708,14 +774,18 @@
         <v>462</v>
       </c>
       <c r="D16">
+        <f t="shared" si="2"/>
+        <v>2.2265060248199999</v>
+      </c>
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>31.095755182625865</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1095755182625869E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>750</v>
@@ -727,14 +797,18 @@
         <v>315</v>
       </c>
       <c r="D17">
+        <f t="shared" si="2"/>
+        <v>1.5180722896499999</v>
+      </c>
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>33.31688055281343</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3316880552813434E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>800</v>
@@ -746,14 +820,19 @@
         <v>0</v>
       </c>
       <c r="D18">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
-        <v>35.538005923000988</v>
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5538005923000993E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>